--- a/results/impute/flights.xlsx
+++ b/results/impute/flights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/impute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0285E2D6-D5D6-5D40-9B34-2B0F730F5E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEFC4B4-5312-994D-9370-14A3FD56C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39740" yWindow="-260" windowWidth="28040" windowHeight="17220" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
+    <workbookView xWindow="34940" yWindow="2400" windowWidth="30240" windowHeight="17240" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,8 +142,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,7 +467,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +642,7 @@
         <v>0.10474057777116801</v>
       </c>
       <c r="E5" s="1">
-        <v>8.8567200491877301E-2</v>
+        <v>9.8567200491877296E-2</v>
       </c>
       <c r="F5" s="1">
         <v>9.3962854270006599E-2</v>
@@ -748,43 +751,43 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>3.8430888895045402E-2</v>
+        <v>4.0383229464595299E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.99694424975039E-2</v>
+        <v>4.2645007802508302E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>5.37641618985506E-2</v>
+        <v>4.9181167237100198E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>5.08872412987375E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.7108902828025397E-2</v>
+        <v>4.2595323146295903E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.55115557720578E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.193696407293417</v>
+        <v>0.18468166984287501</v>
       </c>
       <c r="I8" s="1">
-        <v>4.46325381203595E-2</v>
+        <v>4.9562339157055303E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>0.124700239365319</v>
+        <v>9.9770318010730996E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>5.6268999742288599E-2</v>
+        <v>5.7874237044972597E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>4.8709865999999997E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4.3128645442810302E-2</v>
+        <v>4.9607440000000003E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3.4768052032045998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -793,78 +796,78 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.12895306797988401</v>
+        <v>0.13409006741778801</v>
       </c>
       <c r="D9" s="1">
-        <v>0.12292386078107199</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.13229775197364901</v>
+        <v>0.128752024502577</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.119069209532017</v>
       </c>
       <c r="F9" s="1">
-        <v>0.15164054165313601</v>
+        <v>0.129026993040743</v>
       </c>
       <c r="G9" s="1">
-        <v>0.12685222061811199</v>
+        <v>0.12245154002636199</v>
       </c>
       <c r="H9" s="1">
-        <v>0.345281529651499</v>
+        <v>0.32538443350700502</v>
       </c>
       <c r="I9" s="1">
-        <v>0.14691077448482401</v>
+        <v>0.14420748763576899</v>
       </c>
       <c r="J9" s="1">
-        <v>0.24879651412103301</v>
+        <v>0.20429311441258499</v>
       </c>
       <c r="K9" s="1">
-        <v>0.152348660959162</v>
+        <v>0.13745599130066899</v>
       </c>
       <c r="L9" s="1">
-        <v>0.15394764999999999</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.125277870934491</v>
+        <v>0.15933185999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.12102230921142999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>4.0383229464595299E-2</v>
+        <v>3.8430888895045402E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>4.2645007802508302E-2</v>
+        <v>3.99694424975039E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>4.9181167237100198E-2</v>
+        <v>5.37641618985506E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>4.2595323146295903E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.55115557720578E-2</v>
+        <v>5.08872412987375E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.7108902828025397E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.18468166984287501</v>
+        <v>0.193696407293417</v>
       </c>
       <c r="I10" s="1">
-        <v>4.9562339157055303E-2</v>
+        <v>4.46325381203595E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>9.9770318010730996E-2</v>
+        <v>0.124700239365319</v>
       </c>
       <c r="K10" s="1">
-        <v>5.7874237044972597E-2</v>
+        <v>5.6268999742288599E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>4.9607440000000003E-2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3.4768052032045998E-2</v>
+        <v>4.8709865999999997E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.3128645442810302E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -873,47 +876,47 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>0.13409006741778801</v>
+        <v>0.12895306797988401</v>
       </c>
       <c r="D11" s="1">
-        <v>0.128752024502577</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.119069209532017</v>
+        <v>0.12592386078107201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.13229775197364901</v>
       </c>
       <c r="F11" s="1">
-        <v>0.129026993040743</v>
+        <v>0.15164054165313601</v>
       </c>
       <c r="G11" s="1">
-        <v>0.12245154002636199</v>
+        <v>0.12685222061811199</v>
       </c>
       <c r="H11" s="1">
-        <v>0.32538443350700502</v>
+        <v>0.345281529651499</v>
       </c>
       <c r="I11" s="1">
-        <v>0.14420748763576899</v>
+        <v>0.14691077448482401</v>
       </c>
       <c r="J11" s="1">
-        <v>0.20429311441258499</v>
+        <v>0.24879651412103301</v>
       </c>
       <c r="K11" s="1">
-        <v>0.13745599130066899</v>
+        <v>0.152348660959162</v>
       </c>
       <c r="L11" s="1">
-        <v>0.15933185999999999</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.12102230921142999</v>
+        <v>0.15394764999999999</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.125277870934491</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
